--- a/ExcelConfig/Cameras.xlsx
+++ b/ExcelConfig/Cameras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89076CB1-6A7E-47A1-97ED-2190957475E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B93792-306B-4815-83A4-95DABD59CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="5625" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cameras" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,1.2,-16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,0,0</t>
+    <t>34,-3.5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.4,-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,13 +478,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>10</v>

--- a/ExcelConfig/Cameras.xlsx
+++ b/ExcelConfig/Cameras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B93792-306B-4815-83A4-95DABD59CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93095BD8-23C9-4964-B2B4-504213E82671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="5625" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="3270" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cameras" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,-3.5,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0.4,-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,82,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>13</v>

--- a/ExcelConfig/Cameras.xlsx
+++ b/ExcelConfig/Cameras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93095BD8-23C9-4964-B2B4-504213E82671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76147B04-10C9-466F-95E7-4B53C93205E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="3270" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="3960" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cameras" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>34,82,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4,-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7,121,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,8 +152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}" name="表1" displayName="表1" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}" name="表1" displayName="表1" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4ECD9E95-AD15-4B76-A92E-6901542331BF}" name="id"/>
     <tableColumn id="3" xr3:uid="{81D8D1D4-C55B-4520-BA26-D005B0A3CA50}" name="position"/>
@@ -421,16 +429,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -474,22 +483,42 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>30</v>
       </c>
     </row>
